--- a/data/long_dif/BESCORE_R-Edad-long_dif.xlsx
+++ b/data/long_dif/BESCORE_R-Edad-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -839,7 +839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -994,7 +994,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1316,7 +1316,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1475,7 +1475,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1797,7 +1797,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1956,7 +1956,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2278,7 +2278,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2437,7 +2437,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2759,7 +2759,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2918,7 +2918,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -3240,7 +3240,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -3399,7 +3399,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Peor diferencia negativa</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3721,7 +3721,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3880,7 +3880,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Mejor Diferencia Positiva</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
